--- a/test-files/graph-tests/different-sized-networks/34-genes-111-edges.xlsx
+++ b/test-files/graph-tests/different-sized-networks/34-genes-111-edges.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25725"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13700" tabRatio="500"/>
+    <workbookView xWindow="480" yWindow="480" windowWidth="25120" windowHeight="13700" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="network" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="network" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -177,8 +177,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="9">
+  <cellStyleXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -193,15 +195,17 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="9">
+  <cellStyles count="11">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -533,3869 +537,6 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BH60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
-  <sheetData>
-    <row r="1" spans="1:60">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1"/>
-      <c r="AK1" s="1"/>
-      <c r="AL1" s="1"/>
-      <c r="AM1" s="1"/>
-      <c r="AN1" s="1"/>
-      <c r="AO1" s="1"/>
-      <c r="AP1" s="1"/>
-      <c r="AQ1" s="1"/>
-      <c r="AR1" s="1"/>
-      <c r="AS1" s="1"/>
-      <c r="AT1" s="1"/>
-      <c r="AU1" s="1"/>
-      <c r="AV1" s="1"/>
-      <c r="AW1" s="1"/>
-      <c r="AX1" s="1"/>
-      <c r="AY1" s="1"/>
-      <c r="AZ1" s="1"/>
-      <c r="BA1" s="1"/>
-      <c r="BB1" s="1"/>
-      <c r="BC1" s="1"/>
-      <c r="BD1" s="1"/>
-      <c r="BE1" s="1"/>
-      <c r="BF1" s="1"/>
-      <c r="BG1" s="1"/>
-      <c r="BH1" s="1"/>
-    </row>
-    <row r="2" spans="1:60">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>0</v>
-      </c>
-      <c r="H2">
-        <v>0</v>
-      </c>
-      <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
-      </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>0</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="O2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
-      <c r="T2">
-        <v>0</v>
-      </c>
-      <c r="U2">
-        <v>0</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
-        <v>0</v>
-      </c>
-      <c r="Z2">
-        <v>0</v>
-      </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
-      <c r="AD2">
-        <v>0</v>
-      </c>
-      <c r="AE2">
-        <v>0</v>
-      </c>
-      <c r="AF2">
-        <v>0</v>
-      </c>
-      <c r="AG2">
-        <v>0</v>
-      </c>
-      <c r="AH2">
-        <v>0</v>
-      </c>
-      <c r="AI2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:60">
-      <c r="A3" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
-      </c>
-      <c r="F3">
-        <v>0</v>
-      </c>
-      <c r="G3">
-        <v>0</v>
-      </c>
-      <c r="H3">
-        <v>0</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="O3">
-        <v>0</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
-      <c r="T3">
-        <v>0</v>
-      </c>
-      <c r="U3">
-        <v>0</v>
-      </c>
-      <c r="V3">
-        <v>0</v>
-      </c>
-      <c r="W3">
-        <v>0</v>
-      </c>
-      <c r="X3">
-        <v>0</v>
-      </c>
-      <c r="Y3">
-        <v>0</v>
-      </c>
-      <c r="Z3">
-        <v>0</v>
-      </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>1</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
-      <c r="AD3">
-        <v>0</v>
-      </c>
-      <c r="AE3">
-        <v>0</v>
-      </c>
-      <c r="AF3">
-        <v>0</v>
-      </c>
-      <c r="AG3">
-        <v>0</v>
-      </c>
-      <c r="AH3">
-        <v>0</v>
-      </c>
-      <c r="AI3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:60">
-      <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4">
-        <v>0</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>0</v>
-      </c>
-      <c r="G4">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>0</v>
-      </c>
-      <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>0</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="O4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>0</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>0</v>
-      </c>
-      <c r="Z4">
-        <v>0</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>1</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:60">
-      <c r="A5" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5">
-        <v>0</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>0</v>
-      </c>
-      <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
-      </c>
-      <c r="K5">
-        <v>0</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="O5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>0</v>
-      </c>
-      <c r="Q5">
-        <v>0</v>
-      </c>
-      <c r="R5">
-        <v>0</v>
-      </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>0</v>
-      </c>
-      <c r="AE5">
-        <v>0</v>
-      </c>
-      <c r="AF5">
-        <v>0</v>
-      </c>
-      <c r="AG5">
-        <v>0</v>
-      </c>
-      <c r="AH5">
-        <v>0</v>
-      </c>
-      <c r="AI5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:60">
-      <c r="A6" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0</v>
-      </c>
-      <c r="H6">
-        <v>0</v>
-      </c>
-      <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
-      </c>
-      <c r="K6">
-        <v>0</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="O6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>1</v>
-      </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
-      <c r="T6">
-        <v>0</v>
-      </c>
-      <c r="U6">
-        <v>0</v>
-      </c>
-      <c r="V6">
-        <v>0</v>
-      </c>
-      <c r="W6">
-        <v>0</v>
-      </c>
-      <c r="X6">
-        <v>0</v>
-      </c>
-      <c r="Y6">
-        <v>0</v>
-      </c>
-      <c r="Z6">
-        <v>0</v>
-      </c>
-      <c r="AA6">
-        <v>1</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
-      <c r="AD6">
-        <v>0</v>
-      </c>
-      <c r="AE6">
-        <v>0</v>
-      </c>
-      <c r="AF6">
-        <v>1</v>
-      </c>
-      <c r="AG6">
-        <v>0</v>
-      </c>
-      <c r="AH6">
-        <v>0</v>
-      </c>
-      <c r="AI6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:60">
-      <c r="A7" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7">
-        <v>1</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>1</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:60">
-      <c r="A8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
-      </c>
-      <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
-      </c>
-      <c r="K8">
-        <v>0</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="O8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>0</v>
-      </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
-      <c r="U8">
-        <v>0</v>
-      </c>
-      <c r="V8">
-        <v>0</v>
-      </c>
-      <c r="W8">
-        <v>0</v>
-      </c>
-      <c r="X8">
-        <v>0</v>
-      </c>
-      <c r="Y8">
-        <v>0</v>
-      </c>
-      <c r="Z8">
-        <v>0</v>
-      </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
-      <c r="AD8">
-        <v>0</v>
-      </c>
-      <c r="AE8">
-        <v>0</v>
-      </c>
-      <c r="AF8">
-        <v>0</v>
-      </c>
-      <c r="AG8">
-        <v>0</v>
-      </c>
-      <c r="AH8">
-        <v>0</v>
-      </c>
-      <c r="AI8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:60">
-      <c r="A9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>0</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
-      </c>
-      <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
-      </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
-        <v>0</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9">
-        <v>1</v>
-      </c>
-      <c r="P9">
-        <v>0</v>
-      </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>1</v>
-      </c>
-      <c r="V9">
-        <v>0</v>
-      </c>
-      <c r="W9">
-        <v>0</v>
-      </c>
-      <c r="X9">
-        <v>0</v>
-      </c>
-      <c r="Y9">
-        <v>0</v>
-      </c>
-      <c r="Z9">
-        <v>0</v>
-      </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>1</v>
-      </c>
-      <c r="AD9">
-        <v>0</v>
-      </c>
-      <c r="AE9">
-        <v>0</v>
-      </c>
-      <c r="AF9">
-        <v>0</v>
-      </c>
-      <c r="AG9">
-        <v>0</v>
-      </c>
-      <c r="AH9">
-        <v>0</v>
-      </c>
-      <c r="AI9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:60">
-      <c r="A10" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10">
-        <v>0</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>0</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
-      </c>
-      <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>0</v>
-      </c>
-      <c r="P10">
-        <v>0</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0</v>
-      </c>
-      <c r="Z10">
-        <v>1</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:60">
-      <c r="A11" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>0</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>0</v>
-      </c>
-      <c r="H11">
-        <v>0</v>
-      </c>
-      <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
-      </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>1</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>0</v>
-      </c>
-      <c r="AF11">
-        <v>0</v>
-      </c>
-      <c r="AG11">
-        <v>0</v>
-      </c>
-      <c r="AH11">
-        <v>0</v>
-      </c>
-      <c r="AI11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:60">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>0</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
-      </c>
-      <c r="F12">
-        <v>0</v>
-      </c>
-      <c r="G12">
-        <v>0</v>
-      </c>
-      <c r="H12">
-        <v>0</v>
-      </c>
-      <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-      <c r="K12">
-        <v>0</v>
-      </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12">
-        <v>0</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12">
-        <v>0</v>
-      </c>
-      <c r="P12">
-        <v>0</v>
-      </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0</v>
-      </c>
-      <c r="S12">
-        <v>1</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
-      <c r="U12">
-        <v>0</v>
-      </c>
-      <c r="V12">
-        <v>1</v>
-      </c>
-      <c r="W12">
-        <v>0</v>
-      </c>
-      <c r="X12">
-        <v>0</v>
-      </c>
-      <c r="Y12">
-        <v>0</v>
-      </c>
-      <c r="Z12">
-        <v>0</v>
-      </c>
-      <c r="AA12">
-        <v>0</v>
-      </c>
-      <c r="AB12">
-        <v>0</v>
-      </c>
-      <c r="AC12">
-        <v>0</v>
-      </c>
-      <c r="AD12">
-        <v>0</v>
-      </c>
-      <c r="AE12">
-        <v>0</v>
-      </c>
-      <c r="AF12">
-        <v>1</v>
-      </c>
-      <c r="AG12">
-        <v>1</v>
-      </c>
-      <c r="AH12">
-        <v>0</v>
-      </c>
-      <c r="AI12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:60">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>0</v>
-      </c>
-      <c r="G13">
-        <v>1</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13">
-        <v>0</v>
-      </c>
-      <c r="N13">
-        <v>1</v>
-      </c>
-      <c r="O13">
-        <v>0</v>
-      </c>
-      <c r="P13">
-        <v>1</v>
-      </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>0</v>
-      </c>
-      <c r="V13">
-        <v>0</v>
-      </c>
-      <c r="W13">
-        <v>1</v>
-      </c>
-      <c r="X13">
-        <v>0</v>
-      </c>
-      <c r="Y13">
-        <v>0</v>
-      </c>
-      <c r="Z13">
-        <v>0</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0</v>
-      </c>
-      <c r="AC13">
-        <v>0</v>
-      </c>
-      <c r="AD13">
-        <v>0</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>0</v>
-      </c>
-      <c r="AG13">
-        <v>0</v>
-      </c>
-      <c r="AH13">
-        <v>0</v>
-      </c>
-      <c r="AI13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:60">
-      <c r="A14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>1</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>0</v>
-      </c>
-      <c r="AD14">
-        <v>0</v>
-      </c>
-      <c r="AE14">
-        <v>0</v>
-      </c>
-      <c r="AF14">
-        <v>0</v>
-      </c>
-      <c r="AG14">
-        <v>0</v>
-      </c>
-      <c r="AH14">
-        <v>0</v>
-      </c>
-      <c r="AI14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:60">
-      <c r="A15" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>0</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
-      </c>
-      <c r="F15">
-        <v>0</v>
-      </c>
-      <c r="G15">
-        <v>1</v>
-      </c>
-      <c r="H15">
-        <v>0</v>
-      </c>
-      <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>0</v>
-      </c>
-      <c r="R15">
-        <v>0</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>1</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>1</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>1</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
-      </c>
-      <c r="AE15">
-        <v>0</v>
-      </c>
-      <c r="AF15">
-        <v>0</v>
-      </c>
-      <c r="AG15">
-        <v>0</v>
-      </c>
-      <c r="AH15">
-        <v>0</v>
-      </c>
-      <c r="AI15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:60">
-      <c r="A16" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-      <c r="C16">
-        <v>0</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
-      </c>
-      <c r="F16">
-        <v>0</v>
-      </c>
-      <c r="G16">
-        <v>0</v>
-      </c>
-      <c r="H16">
-        <v>0</v>
-      </c>
-      <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>1</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>0</v>
-      </c>
-      <c r="N16">
-        <v>0</v>
-      </c>
-      <c r="O16">
-        <v>0</v>
-      </c>
-      <c r="P16">
-        <v>0</v>
-      </c>
-      <c r="Q16">
-        <v>0</v>
-      </c>
-      <c r="R16">
-        <v>0</v>
-      </c>
-      <c r="S16">
-        <v>0</v>
-      </c>
-      <c r="T16">
-        <v>0</v>
-      </c>
-      <c r="U16">
-        <v>0</v>
-      </c>
-      <c r="V16">
-        <v>1</v>
-      </c>
-      <c r="W16">
-        <v>0</v>
-      </c>
-      <c r="X16">
-        <v>0</v>
-      </c>
-      <c r="Y16">
-        <v>0</v>
-      </c>
-      <c r="Z16">
-        <v>0</v>
-      </c>
-      <c r="AA16">
-        <v>0</v>
-      </c>
-      <c r="AB16">
-        <v>0</v>
-      </c>
-      <c r="AC16">
-        <v>0</v>
-      </c>
-      <c r="AD16">
-        <v>0</v>
-      </c>
-      <c r="AE16">
-        <v>0</v>
-      </c>
-      <c r="AF16">
-        <v>1</v>
-      </c>
-      <c r="AG16">
-        <v>0</v>
-      </c>
-      <c r="AH16">
-        <v>1</v>
-      </c>
-      <c r="AI16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:35">
-      <c r="A17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-      <c r="C17">
-        <v>0</v>
-      </c>
-      <c r="D17">
-        <v>0</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
-      </c>
-      <c r="F17">
-        <v>0</v>
-      </c>
-      <c r="G17">
-        <v>0</v>
-      </c>
-      <c r="H17">
-        <v>0</v>
-      </c>
-      <c r="I17">
-        <v>1</v>
-      </c>
-      <c r="J17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>0</v>
-      </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17">
-        <v>0</v>
-      </c>
-      <c r="N17">
-        <v>0</v>
-      </c>
-      <c r="O17">
-        <v>0</v>
-      </c>
-      <c r="P17">
-        <v>0</v>
-      </c>
-      <c r="Q17">
-        <v>0</v>
-      </c>
-      <c r="R17">
-        <v>0</v>
-      </c>
-      <c r="S17">
-        <v>0</v>
-      </c>
-      <c r="T17">
-        <v>0</v>
-      </c>
-      <c r="U17">
-        <v>0</v>
-      </c>
-      <c r="V17">
-        <v>0</v>
-      </c>
-      <c r="W17">
-        <v>0</v>
-      </c>
-      <c r="X17">
-        <v>0</v>
-      </c>
-      <c r="Y17">
-        <v>0</v>
-      </c>
-      <c r="Z17">
-        <v>0</v>
-      </c>
-      <c r="AA17">
-        <v>1</v>
-      </c>
-      <c r="AB17">
-        <v>0</v>
-      </c>
-      <c r="AC17">
-        <v>1</v>
-      </c>
-      <c r="AD17">
-        <v>0</v>
-      </c>
-      <c r="AE17">
-        <v>0</v>
-      </c>
-      <c r="AF17">
-        <v>0</v>
-      </c>
-      <c r="AG17">
-        <v>0</v>
-      </c>
-      <c r="AH17">
-        <v>0</v>
-      </c>
-      <c r="AI17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:35">
-      <c r="A18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-      <c r="D18">
-        <v>0</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
-      </c>
-      <c r="F18">
-        <v>0</v>
-      </c>
-      <c r="G18">
-        <v>0</v>
-      </c>
-      <c r="H18">
-        <v>0</v>
-      </c>
-      <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
-      </c>
-      <c r="K18">
-        <v>0</v>
-      </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18">
-        <v>0</v>
-      </c>
-      <c r="N18">
-        <v>0</v>
-      </c>
-      <c r="O18">
-        <v>0</v>
-      </c>
-      <c r="P18">
-        <v>0</v>
-      </c>
-      <c r="Q18">
-        <v>0</v>
-      </c>
-      <c r="R18">
-        <v>0</v>
-      </c>
-      <c r="S18">
-        <v>0</v>
-      </c>
-      <c r="T18">
-        <v>0</v>
-      </c>
-      <c r="U18">
-        <v>0</v>
-      </c>
-      <c r="V18">
-        <v>0</v>
-      </c>
-      <c r="W18">
-        <v>0</v>
-      </c>
-      <c r="X18">
-        <v>1</v>
-      </c>
-      <c r="Y18">
-        <v>0</v>
-      </c>
-      <c r="Z18">
-        <v>0</v>
-      </c>
-      <c r="AA18">
-        <v>0</v>
-      </c>
-      <c r="AB18">
-        <v>0</v>
-      </c>
-      <c r="AC18">
-        <v>0</v>
-      </c>
-      <c r="AD18">
-        <v>0</v>
-      </c>
-      <c r="AE18">
-        <v>0</v>
-      </c>
-      <c r="AF18">
-        <v>0</v>
-      </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
-      <c r="AH18">
-        <v>0</v>
-      </c>
-      <c r="AI18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:35">
-      <c r="A19" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-      <c r="C19">
-        <v>0</v>
-      </c>
-      <c r="D19">
-        <v>0</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>0</v>
-      </c>
-      <c r="G19">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>0</v>
-      </c>
-      <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
-      </c>
-      <c r="K19">
-        <v>0</v>
-      </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>0</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>1</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>0</v>
-      </c>
-      <c r="AF19">
-        <v>0</v>
-      </c>
-      <c r="AG19">
-        <v>0</v>
-      </c>
-      <c r="AH19">
-        <v>0</v>
-      </c>
-      <c r="AI19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:35">
-      <c r="A20" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-      <c r="C20">
-        <v>0</v>
-      </c>
-      <c r="D20">
-        <v>0</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>0</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
-      </c>
-      <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
-      </c>
-      <c r="K20">
-        <v>0</v>
-      </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20">
-        <v>0</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>1</v>
-      </c>
-      <c r="R20">
-        <v>0</v>
-      </c>
-      <c r="S20">
-        <v>0</v>
-      </c>
-      <c r="T20">
-        <v>0</v>
-      </c>
-      <c r="U20">
-        <v>0</v>
-      </c>
-      <c r="V20">
-        <v>1</v>
-      </c>
-      <c r="W20">
-        <v>1</v>
-      </c>
-      <c r="X20">
-        <v>0</v>
-      </c>
-      <c r="Y20">
-        <v>0</v>
-      </c>
-      <c r="Z20">
-        <v>0</v>
-      </c>
-      <c r="AA20">
-        <v>0</v>
-      </c>
-      <c r="AB20">
-        <v>0</v>
-      </c>
-      <c r="AC20">
-        <v>0</v>
-      </c>
-      <c r="AD20">
-        <v>0</v>
-      </c>
-      <c r="AE20">
-        <v>0</v>
-      </c>
-      <c r="AF20">
-        <v>0</v>
-      </c>
-      <c r="AG20">
-        <v>0</v>
-      </c>
-      <c r="AH20">
-        <v>0</v>
-      </c>
-      <c r="AI20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:35">
-      <c r="A21" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
-      </c>
-      <c r="D21">
-        <v>0</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
-      </c>
-      <c r="F21">
-        <v>0</v>
-      </c>
-      <c r="G21">
-        <v>0</v>
-      </c>
-      <c r="H21">
-        <v>0</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21">
-        <v>0</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21">
-        <v>0</v>
-      </c>
-      <c r="P21">
-        <v>0</v>
-      </c>
-      <c r="Q21">
-        <v>0</v>
-      </c>
-      <c r="R21">
-        <v>0</v>
-      </c>
-      <c r="S21">
-        <v>0</v>
-      </c>
-      <c r="T21">
-        <v>0</v>
-      </c>
-      <c r="U21">
-        <v>0</v>
-      </c>
-      <c r="V21">
-        <v>0</v>
-      </c>
-      <c r="W21">
-        <v>0</v>
-      </c>
-      <c r="X21">
-        <v>0</v>
-      </c>
-      <c r="Y21">
-        <v>0</v>
-      </c>
-      <c r="Z21">
-        <v>0</v>
-      </c>
-      <c r="AA21">
-        <v>0</v>
-      </c>
-      <c r="AB21">
-        <v>0</v>
-      </c>
-      <c r="AC21">
-        <v>0</v>
-      </c>
-      <c r="AD21">
-        <v>0</v>
-      </c>
-      <c r="AE21">
-        <v>0</v>
-      </c>
-      <c r="AF21">
-        <v>0</v>
-      </c>
-      <c r="AG21">
-        <v>0</v>
-      </c>
-      <c r="AH21">
-        <v>0</v>
-      </c>
-      <c r="AI21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:35">
-      <c r="A22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B22">
-        <v>0</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
-      </c>
-      <c r="D22">
-        <v>0</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22">
-        <v>0</v>
-      </c>
-      <c r="H22">
-        <v>0</v>
-      </c>
-      <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
-      </c>
-      <c r="K22">
-        <v>0</v>
-      </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22">
-        <v>0</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22">
-        <v>1</v>
-      </c>
-      <c r="P22">
-        <v>0</v>
-      </c>
-      <c r="Q22">
-        <v>0</v>
-      </c>
-      <c r="R22">
-        <v>0</v>
-      </c>
-      <c r="S22">
-        <v>0</v>
-      </c>
-      <c r="T22">
-        <v>0</v>
-      </c>
-      <c r="U22">
-        <v>0</v>
-      </c>
-      <c r="V22">
-        <v>0</v>
-      </c>
-      <c r="W22">
-        <v>0</v>
-      </c>
-      <c r="X22">
-        <v>0</v>
-      </c>
-      <c r="Y22">
-        <v>0</v>
-      </c>
-      <c r="Z22">
-        <v>1</v>
-      </c>
-      <c r="AA22">
-        <v>0</v>
-      </c>
-      <c r="AB22">
-        <v>0</v>
-      </c>
-      <c r="AC22">
-        <v>1</v>
-      </c>
-      <c r="AD22">
-        <v>0</v>
-      </c>
-      <c r="AE22">
-        <v>0</v>
-      </c>
-      <c r="AF22">
-        <v>0</v>
-      </c>
-      <c r="AG22">
-        <v>0</v>
-      </c>
-      <c r="AH22">
-        <v>0</v>
-      </c>
-      <c r="AI22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:35">
-      <c r="A23" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23">
-        <v>0</v>
-      </c>
-      <c r="C23">
-        <v>0</v>
-      </c>
-      <c r="D23">
-        <v>0</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>0</v>
-      </c>
-      <c r="H23">
-        <v>0</v>
-      </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
-      </c>
-      <c r="K23">
-        <v>0</v>
-      </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23">
-        <v>0</v>
-      </c>
-      <c r="P23">
-        <v>0</v>
-      </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
-      <c r="R23">
-        <v>0</v>
-      </c>
-      <c r="S23">
-        <v>0</v>
-      </c>
-      <c r="T23">
-        <v>0</v>
-      </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
-      <c r="V23">
-        <v>0</v>
-      </c>
-      <c r="W23">
-        <v>0</v>
-      </c>
-      <c r="X23">
-        <v>0</v>
-      </c>
-      <c r="Y23">
-        <v>0</v>
-      </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
-      <c r="AA23">
-        <v>0</v>
-      </c>
-      <c r="AB23">
-        <v>0</v>
-      </c>
-      <c r="AC23">
-        <v>1</v>
-      </c>
-      <c r="AD23">
-        <v>0</v>
-      </c>
-      <c r="AE23">
-        <v>0</v>
-      </c>
-      <c r="AF23">
-        <v>1</v>
-      </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
-      <c r="AH23">
-        <v>0</v>
-      </c>
-      <c r="AI23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:35">
-      <c r="A24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24">
-        <v>0</v>
-      </c>
-      <c r="C24">
-        <v>0</v>
-      </c>
-      <c r="D24">
-        <v>0</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>0</v>
-      </c>
-      <c r="H24">
-        <v>0</v>
-      </c>
-      <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
-      </c>
-      <c r="K24">
-        <v>0</v>
-      </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24">
-        <v>0</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24">
-        <v>0</v>
-      </c>
-      <c r="P24">
-        <v>0</v>
-      </c>
-      <c r="Q24">
-        <v>0</v>
-      </c>
-      <c r="R24">
-        <v>0</v>
-      </c>
-      <c r="S24">
-        <v>0</v>
-      </c>
-      <c r="T24">
-        <v>0</v>
-      </c>
-      <c r="U24">
-        <v>0</v>
-      </c>
-      <c r="V24">
-        <v>0</v>
-      </c>
-      <c r="W24">
-        <v>0</v>
-      </c>
-      <c r="X24">
-        <v>0</v>
-      </c>
-      <c r="Y24">
-        <v>1</v>
-      </c>
-      <c r="Z24">
-        <v>0</v>
-      </c>
-      <c r="AA24">
-        <v>0</v>
-      </c>
-      <c r="AB24">
-        <v>0</v>
-      </c>
-      <c r="AC24">
-        <v>0</v>
-      </c>
-      <c r="AD24">
-        <v>0</v>
-      </c>
-      <c r="AE24">
-        <v>0</v>
-      </c>
-      <c r="AF24">
-        <v>0</v>
-      </c>
-      <c r="AG24">
-        <v>0</v>
-      </c>
-      <c r="AH24">
-        <v>0</v>
-      </c>
-      <c r="AI24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:35">
-      <c r="A25" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
-      </c>
-      <c r="D25">
-        <v>0</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>0</v>
-      </c>
-      <c r="G25">
-        <v>0</v>
-      </c>
-      <c r="H25">
-        <v>0</v>
-      </c>
-      <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>1</v>
-      </c>
-      <c r="K25">
-        <v>0</v>
-      </c>
-      <c r="L25">
-        <v>0</v>
-      </c>
-      <c r="M25">
-        <v>0</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25">
-        <v>0</v>
-      </c>
-      <c r="P25">
-        <v>0</v>
-      </c>
-      <c r="Q25">
-        <v>0</v>
-      </c>
-      <c r="R25">
-        <v>0</v>
-      </c>
-      <c r="S25">
-        <v>1</v>
-      </c>
-      <c r="T25">
-        <v>0</v>
-      </c>
-      <c r="U25">
-        <v>0</v>
-      </c>
-      <c r="V25">
-        <v>0</v>
-      </c>
-      <c r="W25">
-        <v>0</v>
-      </c>
-      <c r="X25">
-        <v>0</v>
-      </c>
-      <c r="Y25">
-        <v>0</v>
-      </c>
-      <c r="Z25">
-        <v>0</v>
-      </c>
-      <c r="AA25">
-        <v>0</v>
-      </c>
-      <c r="AB25">
-        <v>0</v>
-      </c>
-      <c r="AC25">
-        <v>0</v>
-      </c>
-      <c r="AD25">
-        <v>0</v>
-      </c>
-      <c r="AE25">
-        <v>1</v>
-      </c>
-      <c r="AF25">
-        <v>0</v>
-      </c>
-      <c r="AG25">
-        <v>0</v>
-      </c>
-      <c r="AH25">
-        <v>1</v>
-      </c>
-      <c r="AI25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:35">
-      <c r="A26" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B26">
-        <v>0</v>
-      </c>
-      <c r="C26">
-        <v>0</v>
-      </c>
-      <c r="D26">
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
-      </c>
-      <c r="H26">
-        <v>0</v>
-      </c>
-      <c r="I26">
-        <v>0</v>
-      </c>
-      <c r="J26">
-        <v>0</v>
-      </c>
-      <c r="K26">
-        <v>0</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-      <c r="M26">
-        <v>0</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>1</v>
-      </c>
-      <c r="R26">
-        <v>0</v>
-      </c>
-      <c r="S26">
-        <v>0</v>
-      </c>
-      <c r="T26">
-        <v>0</v>
-      </c>
-      <c r="U26">
-        <v>0</v>
-      </c>
-      <c r="V26">
-        <v>0</v>
-      </c>
-      <c r="W26">
-        <v>0</v>
-      </c>
-      <c r="X26">
-        <v>0</v>
-      </c>
-      <c r="Y26">
-        <v>0</v>
-      </c>
-      <c r="Z26">
-        <v>0</v>
-      </c>
-      <c r="AA26">
-        <v>0</v>
-      </c>
-      <c r="AB26">
-        <v>0</v>
-      </c>
-      <c r="AC26">
-        <v>0</v>
-      </c>
-      <c r="AD26">
-        <v>0</v>
-      </c>
-      <c r="AE26">
-        <v>0</v>
-      </c>
-      <c r="AF26">
-        <v>1</v>
-      </c>
-      <c r="AG26">
-        <v>0</v>
-      </c>
-      <c r="AH26">
-        <v>0</v>
-      </c>
-      <c r="AI26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:35">
-      <c r="A27" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-      <c r="D27">
-        <v>0</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>0</v>
-      </c>
-      <c r="H27">
-        <v>0</v>
-      </c>
-      <c r="I27">
-        <v>0</v>
-      </c>
-      <c r="J27">
-        <v>0</v>
-      </c>
-      <c r="K27">
-        <v>0</v>
-      </c>
-      <c r="L27">
-        <v>0</v>
-      </c>
-      <c r="M27">
-        <v>1</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27">
-        <v>0</v>
-      </c>
-      <c r="P27">
-        <v>0</v>
-      </c>
-      <c r="Q27">
-        <v>0</v>
-      </c>
-      <c r="R27">
-        <v>0</v>
-      </c>
-      <c r="S27">
-        <v>0</v>
-      </c>
-      <c r="T27">
-        <v>0</v>
-      </c>
-      <c r="U27">
-        <v>0</v>
-      </c>
-      <c r="V27">
-        <v>0</v>
-      </c>
-      <c r="W27">
-        <v>0</v>
-      </c>
-      <c r="X27">
-        <v>1</v>
-      </c>
-      <c r="Y27">
-        <v>0</v>
-      </c>
-      <c r="Z27">
-        <v>0</v>
-      </c>
-      <c r="AA27">
-        <v>0</v>
-      </c>
-      <c r="AB27">
-        <v>0</v>
-      </c>
-      <c r="AC27">
-        <v>0</v>
-      </c>
-      <c r="AD27">
-        <v>0</v>
-      </c>
-      <c r="AE27">
-        <v>0</v>
-      </c>
-      <c r="AF27">
-        <v>0</v>
-      </c>
-      <c r="AG27">
-        <v>0</v>
-      </c>
-      <c r="AH27">
-        <v>1</v>
-      </c>
-      <c r="AI27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:35">
-      <c r="A28" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B28">
-        <v>0</v>
-      </c>
-      <c r="C28">
-        <v>0</v>
-      </c>
-      <c r="D28">
-        <v>0</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>0</v>
-      </c>
-      <c r="G28">
-        <v>0</v>
-      </c>
-      <c r="H28">
-        <v>0</v>
-      </c>
-      <c r="I28">
-        <v>0</v>
-      </c>
-      <c r="J28">
-        <v>0</v>
-      </c>
-      <c r="K28">
-        <v>0</v>
-      </c>
-      <c r="L28">
-        <v>0</v>
-      </c>
-      <c r="M28">
-        <v>1</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28">
-        <v>0</v>
-      </c>
-      <c r="P28">
-        <v>1</v>
-      </c>
-      <c r="Q28">
-        <v>0</v>
-      </c>
-      <c r="R28">
-        <v>1</v>
-      </c>
-      <c r="S28">
-        <v>0</v>
-      </c>
-      <c r="T28">
-        <v>0</v>
-      </c>
-      <c r="U28">
-        <v>0</v>
-      </c>
-      <c r="V28">
-        <v>0</v>
-      </c>
-      <c r="W28">
-        <v>0</v>
-      </c>
-      <c r="X28">
-        <v>0</v>
-      </c>
-      <c r="Y28">
-        <v>0</v>
-      </c>
-      <c r="Z28">
-        <v>0</v>
-      </c>
-      <c r="AA28">
-        <v>0</v>
-      </c>
-      <c r="AB28">
-        <v>0</v>
-      </c>
-      <c r="AC28">
-        <v>1</v>
-      </c>
-      <c r="AD28">
-        <v>0</v>
-      </c>
-      <c r="AE28">
-        <v>0</v>
-      </c>
-      <c r="AF28">
-        <v>1</v>
-      </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
-      <c r="AH28">
-        <v>0</v>
-      </c>
-      <c r="AI28">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:35">
-      <c r="A29" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="C29">
-        <v>0</v>
-      </c>
-      <c r="D29">
-        <v>0</v>
-      </c>
-      <c r="E29">
-        <v>0</v>
-      </c>
-      <c r="F29">
-        <v>0</v>
-      </c>
-      <c r="G29">
-        <v>0</v>
-      </c>
-      <c r="H29">
-        <v>0</v>
-      </c>
-      <c r="I29">
-        <v>1</v>
-      </c>
-      <c r="J29">
-        <v>0</v>
-      </c>
-      <c r="K29">
-        <v>0</v>
-      </c>
-      <c r="L29">
-        <v>0</v>
-      </c>
-      <c r="M29">
-        <v>0</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>0</v>
-      </c>
-      <c r="R29">
-        <v>0</v>
-      </c>
-      <c r="S29">
-        <v>0</v>
-      </c>
-      <c r="T29">
-        <v>0</v>
-      </c>
-      <c r="U29">
-        <v>0</v>
-      </c>
-      <c r="V29">
-        <v>0</v>
-      </c>
-      <c r="W29">
-        <v>0</v>
-      </c>
-      <c r="X29">
-        <v>0</v>
-      </c>
-      <c r="Y29">
-        <v>0</v>
-      </c>
-      <c r="Z29">
-        <v>0</v>
-      </c>
-      <c r="AA29">
-        <v>0</v>
-      </c>
-      <c r="AB29">
-        <v>0</v>
-      </c>
-      <c r="AC29">
-        <v>0</v>
-      </c>
-      <c r="AD29">
-        <v>0</v>
-      </c>
-      <c r="AE29">
-        <v>0</v>
-      </c>
-      <c r="AF29">
-        <v>0</v>
-      </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
-      <c r="AH29">
-        <v>0</v>
-      </c>
-      <c r="AI29">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:35">
-      <c r="A30" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30">
-        <v>0</v>
-      </c>
-      <c r="C30">
-        <v>0</v>
-      </c>
-      <c r="D30">
-        <v>0</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>0</v>
-      </c>
-      <c r="G30">
-        <v>0</v>
-      </c>
-      <c r="H30">
-        <v>0</v>
-      </c>
-      <c r="I30">
-        <v>0</v>
-      </c>
-      <c r="J30">
-        <v>0</v>
-      </c>
-      <c r="K30">
-        <v>0</v>
-      </c>
-      <c r="L30">
-        <v>0</v>
-      </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>0</v>
-      </c>
-      <c r="R30">
-        <v>0</v>
-      </c>
-      <c r="S30">
-        <v>0</v>
-      </c>
-      <c r="T30">
-        <v>0</v>
-      </c>
-      <c r="U30">
-        <v>0</v>
-      </c>
-      <c r="V30">
-        <v>0</v>
-      </c>
-      <c r="W30">
-        <v>1</v>
-      </c>
-      <c r="X30">
-        <v>0</v>
-      </c>
-      <c r="Y30">
-        <v>0</v>
-      </c>
-      <c r="Z30">
-        <v>0</v>
-      </c>
-      <c r="AA30">
-        <v>0</v>
-      </c>
-      <c r="AB30">
-        <v>0</v>
-      </c>
-      <c r="AC30">
-        <v>0</v>
-      </c>
-      <c r="AD30">
-        <v>0</v>
-      </c>
-      <c r="AE30">
-        <v>0</v>
-      </c>
-      <c r="AF30">
-        <v>0</v>
-      </c>
-      <c r="AG30">
-        <v>0</v>
-      </c>
-      <c r="AH30">
-        <v>0</v>
-      </c>
-      <c r="AI30">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:35">
-      <c r="A31" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B31">
-        <v>0</v>
-      </c>
-      <c r="C31">
-        <v>0</v>
-      </c>
-      <c r="D31">
-        <v>0</v>
-      </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>0</v>
-      </c>
-      <c r="I31">
-        <v>0</v>
-      </c>
-      <c r="J31">
-        <v>0</v>
-      </c>
-      <c r="K31">
-        <v>0</v>
-      </c>
-      <c r="L31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>0</v>
-      </c>
-      <c r="N31">
-        <v>0</v>
-      </c>
-      <c r="O31">
-        <v>0</v>
-      </c>
-      <c r="P31">
-        <v>0</v>
-      </c>
-      <c r="Q31">
-        <v>0</v>
-      </c>
-      <c r="R31">
-        <v>0</v>
-      </c>
-      <c r="S31">
-        <v>0</v>
-      </c>
-      <c r="T31">
-        <v>0</v>
-      </c>
-      <c r="U31">
-        <v>0</v>
-      </c>
-      <c r="V31">
-        <v>0</v>
-      </c>
-      <c r="W31">
-        <v>0</v>
-      </c>
-      <c r="X31">
-        <v>0</v>
-      </c>
-      <c r="Y31">
-        <v>0</v>
-      </c>
-      <c r="Z31">
-        <v>0</v>
-      </c>
-      <c r="AA31">
-        <v>0</v>
-      </c>
-      <c r="AB31">
-        <v>0</v>
-      </c>
-      <c r="AC31">
-        <v>0</v>
-      </c>
-      <c r="AD31">
-        <v>0</v>
-      </c>
-      <c r="AE31">
-        <v>0</v>
-      </c>
-      <c r="AF31">
-        <v>0</v>
-      </c>
-      <c r="AG31">
-        <v>0</v>
-      </c>
-      <c r="AH31">
-        <v>0</v>
-      </c>
-      <c r="AI31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:35">
-      <c r="A32" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
-      </c>
-      <c r="D32">
-        <v>0</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>0</v>
-      </c>
-      <c r="G32">
-        <v>0</v>
-      </c>
-      <c r="H32">
-        <v>0</v>
-      </c>
-      <c r="I32">
-        <v>1</v>
-      </c>
-      <c r="J32">
-        <v>0</v>
-      </c>
-      <c r="K32">
-        <v>1</v>
-      </c>
-      <c r="L32">
-        <v>0</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-      <c r="N32">
-        <v>0</v>
-      </c>
-      <c r="O32">
-        <v>0</v>
-      </c>
-      <c r="P32">
-        <v>0</v>
-      </c>
-      <c r="Q32">
-        <v>0</v>
-      </c>
-      <c r="R32">
-        <v>0</v>
-      </c>
-      <c r="S32">
-        <v>0</v>
-      </c>
-      <c r="T32">
-        <v>0</v>
-      </c>
-      <c r="U32">
-        <v>0</v>
-      </c>
-      <c r="V32">
-        <v>0</v>
-      </c>
-      <c r="W32">
-        <v>0</v>
-      </c>
-      <c r="X32">
-        <v>0</v>
-      </c>
-      <c r="Y32">
-        <v>0</v>
-      </c>
-      <c r="Z32">
-        <v>0</v>
-      </c>
-      <c r="AA32">
-        <v>0</v>
-      </c>
-      <c r="AB32">
-        <v>0</v>
-      </c>
-      <c r="AC32">
-        <v>0</v>
-      </c>
-      <c r="AD32">
-        <v>0</v>
-      </c>
-      <c r="AE32">
-        <v>0</v>
-      </c>
-      <c r="AF32">
-        <v>0</v>
-      </c>
-      <c r="AG32">
-        <v>1</v>
-      </c>
-      <c r="AH32">
-        <v>0</v>
-      </c>
-      <c r="AI32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:35">
-      <c r="A33" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B33">
-        <v>1</v>
-      </c>
-      <c r="C33">
-        <v>0</v>
-      </c>
-      <c r="D33">
-        <v>0</v>
-      </c>
-      <c r="E33">
-        <v>0</v>
-      </c>
-      <c r="F33">
-        <v>0</v>
-      </c>
-      <c r="G33">
-        <v>0</v>
-      </c>
-      <c r="H33">
-        <v>0</v>
-      </c>
-      <c r="I33">
-        <v>0</v>
-      </c>
-      <c r="J33">
-        <v>0</v>
-      </c>
-      <c r="K33">
-        <v>0</v>
-      </c>
-      <c r="L33">
-        <v>0</v>
-      </c>
-      <c r="M33">
-        <v>0</v>
-      </c>
-      <c r="N33">
-        <v>0</v>
-      </c>
-      <c r="O33">
-        <v>0</v>
-      </c>
-      <c r="P33">
-        <v>1</v>
-      </c>
-      <c r="Q33">
-        <v>0</v>
-      </c>
-      <c r="R33">
-        <v>0</v>
-      </c>
-      <c r="S33">
-        <v>0</v>
-      </c>
-      <c r="T33">
-        <v>0</v>
-      </c>
-      <c r="U33">
-        <v>0</v>
-      </c>
-      <c r="V33">
-        <v>1</v>
-      </c>
-      <c r="W33">
-        <v>0</v>
-      </c>
-      <c r="X33">
-        <v>0</v>
-      </c>
-      <c r="Y33">
-        <v>0</v>
-      </c>
-      <c r="Z33">
-        <v>0</v>
-      </c>
-      <c r="AA33">
-        <v>0</v>
-      </c>
-      <c r="AB33">
-        <v>0</v>
-      </c>
-      <c r="AC33">
-        <v>0</v>
-      </c>
-      <c r="AD33">
-        <v>0</v>
-      </c>
-      <c r="AE33">
-        <v>0</v>
-      </c>
-      <c r="AF33">
-        <v>0</v>
-      </c>
-      <c r="AG33">
-        <v>0</v>
-      </c>
-      <c r="AH33">
-        <v>0</v>
-      </c>
-      <c r="AI33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:35">
-      <c r="A34" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B34">
-        <v>0</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
-      </c>
-      <c r="D34">
-        <v>1</v>
-      </c>
-      <c r="E34">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>0</v>
-      </c>
-      <c r="G34">
-        <v>0</v>
-      </c>
-      <c r="H34">
-        <v>0</v>
-      </c>
-      <c r="I34">
-        <v>0</v>
-      </c>
-      <c r="J34">
-        <v>0</v>
-      </c>
-      <c r="K34">
-        <v>0</v>
-      </c>
-      <c r="L34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>0</v>
-      </c>
-      <c r="N34">
-        <v>0</v>
-      </c>
-      <c r="O34">
-        <v>0</v>
-      </c>
-      <c r="P34">
-        <v>0</v>
-      </c>
-      <c r="Q34">
-        <v>0</v>
-      </c>
-      <c r="R34">
-        <v>0</v>
-      </c>
-      <c r="S34">
-        <v>0</v>
-      </c>
-      <c r="T34">
-        <v>0</v>
-      </c>
-      <c r="U34">
-        <v>1</v>
-      </c>
-      <c r="V34">
-        <v>1</v>
-      </c>
-      <c r="W34">
-        <v>0</v>
-      </c>
-      <c r="X34">
-        <v>0</v>
-      </c>
-      <c r="Y34">
-        <v>0</v>
-      </c>
-      <c r="Z34">
-        <v>0</v>
-      </c>
-      <c r="AA34">
-        <v>0</v>
-      </c>
-      <c r="AB34">
-        <v>0</v>
-      </c>
-      <c r="AC34">
-        <v>0</v>
-      </c>
-      <c r="AD34">
-        <v>0</v>
-      </c>
-      <c r="AE34">
-        <v>0</v>
-      </c>
-      <c r="AF34">
-        <v>0</v>
-      </c>
-      <c r="AG34">
-        <v>0</v>
-      </c>
-      <c r="AH34">
-        <v>1</v>
-      </c>
-      <c r="AI34">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:35">
-      <c r="A35" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35">
-        <v>0</v>
-      </c>
-      <c r="C35">
-        <v>0</v>
-      </c>
-      <c r="D35">
-        <v>0</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>0</v>
-      </c>
-      <c r="G35">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>0</v>
-      </c>
-      <c r="I35">
-        <v>0</v>
-      </c>
-      <c r="J35">
-        <v>0</v>
-      </c>
-      <c r="K35">
-        <v>0</v>
-      </c>
-      <c r="L35">
-        <v>0</v>
-      </c>
-      <c r="M35">
-        <v>0</v>
-      </c>
-      <c r="N35">
-        <v>0</v>
-      </c>
-      <c r="O35">
-        <v>0</v>
-      </c>
-      <c r="P35">
-        <v>0</v>
-      </c>
-      <c r="Q35">
-        <v>0</v>
-      </c>
-      <c r="R35">
-        <v>0</v>
-      </c>
-      <c r="S35">
-        <v>0</v>
-      </c>
-      <c r="T35">
-        <v>0</v>
-      </c>
-      <c r="U35">
-        <v>0</v>
-      </c>
-      <c r="V35">
-        <v>1</v>
-      </c>
-      <c r="W35">
-        <v>0</v>
-      </c>
-      <c r="X35">
-        <v>0</v>
-      </c>
-      <c r="Y35">
-        <v>0</v>
-      </c>
-      <c r="Z35">
-        <v>0</v>
-      </c>
-      <c r="AA35">
-        <v>0</v>
-      </c>
-      <c r="AB35">
-        <v>0</v>
-      </c>
-      <c r="AC35">
-        <v>0</v>
-      </c>
-      <c r="AD35">
-        <v>0</v>
-      </c>
-      <c r="AE35">
-        <v>0</v>
-      </c>
-      <c r="AF35">
-        <v>0</v>
-      </c>
-      <c r="AG35">
-        <v>0</v>
-      </c>
-      <c r="AH35">
-        <v>0</v>
-      </c>
-      <c r="AI35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:35">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:35">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:35">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:35">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:35">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:35">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:35">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:35">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:35">
-      <c r="A44" s="1"/>
-    </row>
-    <row r="45" spans="1:35">
-      <c r="A45" s="1"/>
-    </row>
-    <row r="46" spans="1:35">
-      <c r="A46" s="1"/>
-    </row>
-    <row r="47" spans="1:35">
-      <c r="A47" s="1"/>
-    </row>
-    <row r="48" spans="1:35">
-      <c r="A48" s="1"/>
-    </row>
-    <row r="49" spans="1:1">
-      <c r="A49" s="1"/>
-    </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="1"/>
-    </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="1"/>
-    </row>
-    <row r="52" spans="1:1">
-      <c r="A52" s="1"/>
-    </row>
-    <row r="53" spans="1:1">
-      <c r="A53" s="1"/>
-    </row>
-    <row r="54" spans="1:1">
-      <c r="A54" s="1"/>
-    </row>
-    <row r="55" spans="1:1">
-      <c r="A55" s="1"/>
-    </row>
-    <row r="56" spans="1:1">
-      <c r="A56" s="1"/>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="1"/>
-    </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="1"/>
-    </row>
-    <row r="59" spans="1:1">
-      <c r="A59" s="1"/>
-    </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:BH60"/>
-  <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
@@ -4573,7 +714,7 @@
       </c>
       <c r="B2" s="2">
         <f ca="1">IF(RAND()&lt;0.1134,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="2">
         <f t="shared" ref="C2:X17" ca="1" si="0">IF(RAND()&lt;0.1134,1,0)</f>
@@ -4585,7 +726,7 @@
       </c>
       <c r="E2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4597,7 +738,7 @@
       </c>
       <c r="H2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I2" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4605,11 +746,11 @@
       </c>
       <c r="J2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L2" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4617,7 +758,7 @@
       </c>
       <c r="M2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N2" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4629,11 +770,11 @@
       </c>
       <c r="P2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R2" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4641,11 +782,11 @@
       </c>
       <c r="S2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4661,11 +802,11 @@
       </c>
       <c r="X2" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y2" s="2">
-        <f t="shared" ref="W2:AK17" ca="1" si="1">IF(RAND()&lt;0.1134,1,0)</f>
-        <v>1</v>
+        <f t="shared" ref="W2:AI17" ca="1" si="1">IF(RAND()&lt;0.1134,1,0)</f>
+        <v>0</v>
       </c>
       <c r="Z2" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -4685,7 +826,7 @@
       </c>
       <c r="AD2" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE2" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -4752,15 +893,15 @@
       </c>
       <c r="K3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N3" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4796,7 +937,7 @@
       </c>
       <c r="V3" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4804,7 +945,7 @@
       </c>
       <c r="X3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y3" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -4812,7 +953,7 @@
       </c>
       <c r="Z3" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA3" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -4859,7 +1000,7 @@
       </c>
       <c r="B4" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4867,7 +1008,7 @@
       </c>
       <c r="D4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4879,11 +1020,11 @@
       </c>
       <c r="G4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4891,15 +1032,15 @@
       </c>
       <c r="J4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4907,7 +1048,7 @@
       </c>
       <c r="N4" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O4" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -4963,11 +1104,11 @@
       </c>
       <c r="AB4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD4" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -4975,7 +1116,7 @@
       </c>
       <c r="AE4" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5018,7 +1159,7 @@
       </c>
       <c r="F5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5026,11 +1167,11 @@
       </c>
       <c r="H5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5038,7 +1179,7 @@
       </c>
       <c r="K5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5050,7 +1191,7 @@
       </c>
       <c r="N5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5062,7 +1203,7 @@
       </c>
       <c r="Q5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5082,7 +1223,7 @@
       </c>
       <c r="V5" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W5" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5106,7 +1247,7 @@
       </c>
       <c r="AB5" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC5" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5149,15 +1290,15 @@
       </c>
       <c r="C6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F6" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5197,7 +1338,7 @@
       </c>
       <c r="O6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P6" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5229,7 +1370,7 @@
       </c>
       <c r="W6" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X6" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5249,7 +1390,7 @@
       </c>
       <c r="AB6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC6" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5273,7 +1414,7 @@
       </c>
       <c r="AH6" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI6" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5288,7 +1429,7 @@
       </c>
       <c r="B7" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5320,11 +1461,11 @@
       </c>
       <c r="J7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5356,7 +1497,7 @@
       </c>
       <c r="S7" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T7" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5380,11 +1521,11 @@
       </c>
       <c r="Y7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA7" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5392,7 +1533,7 @@
       </c>
       <c r="AB7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC7" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5416,7 +1557,7 @@
       </c>
       <c r="AH7" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5451,7 +1592,7 @@
       </c>
       <c r="G8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H8" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5499,7 +1640,7 @@
       </c>
       <c r="S8" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T8" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5519,7 +1660,7 @@
       </c>
       <c r="X8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y8" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5539,7 +1680,7 @@
       </c>
       <c r="AC8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD8" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5547,7 +1688,7 @@
       </c>
       <c r="AE8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF8" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5563,7 +1704,7 @@
       </c>
       <c r="AI8" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="2"/>
       <c r="AK8" s="2"/>
@@ -5574,7 +1715,7 @@
       </c>
       <c r="B9" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C9" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5606,7 +1747,7 @@
       </c>
       <c r="J9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5618,7 +1759,7 @@
       </c>
       <c r="M9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N9" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5626,19 +1767,19 @@
       </c>
       <c r="O9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S9" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5670,7 +1811,7 @@
       </c>
       <c r="Z9" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA9" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5729,7 +1870,7 @@
       </c>
       <c r="E10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5753,7 +1894,7 @@
       </c>
       <c r="K10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5765,7 +1906,7 @@
       </c>
       <c r="N10" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O10" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5845,7 +1986,7 @@
       </c>
       <c r="AH10" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI10" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -5872,7 +2013,7 @@
       </c>
       <c r="E11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5880,7 +2021,7 @@
       </c>
       <c r="G11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5896,7 +2037,7 @@
       </c>
       <c r="K11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5928,7 +2069,7 @@
       </c>
       <c r="S11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5940,7 +2081,7 @@
       </c>
       <c r="V11" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W11" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -5960,7 +2101,7 @@
       </c>
       <c r="AA11" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB11" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6003,11 +2144,11 @@
       </c>
       <c r="B12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6031,7 +2172,7 @@
       </c>
       <c r="I12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6055,7 +2196,7 @@
       </c>
       <c r="O12" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P12" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6067,7 +2208,7 @@
       </c>
       <c r="R12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6075,7 +2216,7 @@
       </c>
       <c r="T12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6087,7 +2228,7 @@
       </c>
       <c r="W12" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X12" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6111,11 +2252,11 @@
       </c>
       <c r="AC12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6123,7 +2264,7 @@
       </c>
       <c r="AF12" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG12" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6210,7 +2351,7 @@
       </c>
       <c r="R13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S13" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6222,7 +2363,7 @@
       </c>
       <c r="U13" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V13" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6297,7 +2438,7 @@
       </c>
       <c r="D14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6313,7 +2454,7 @@
       </c>
       <c r="H14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6329,7 +2470,7 @@
       </c>
       <c r="L14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6337,7 +2478,7 @@
       </c>
       <c r="N14" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O14" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6417,7 +2558,7 @@
       </c>
       <c r="AH14" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI14" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6452,11 +2593,11 @@
       </c>
       <c r="G15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6468,7 +2609,7 @@
       </c>
       <c r="K15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6488,7 +2629,7 @@
       </c>
       <c r="P15" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6512,7 +2653,7 @@
       </c>
       <c r="V15" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W15" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6579,7 +2720,7 @@
       </c>
       <c r="C16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D16" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6607,11 +2748,11 @@
       </c>
       <c r="J16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L16" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6699,11 +2840,11 @@
       </c>
       <c r="AG16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH16" s="2">
         <f t="shared" ca="1" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI16" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6734,15 +2875,15 @@
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6770,7 +2911,7 @@
       </c>
       <c r="O17" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P17" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6786,7 +2927,7 @@
       </c>
       <c r="S17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T17" s="2">
         <f t="shared" ca="1" si="0"/>
@@ -6798,7 +2939,7 @@
       </c>
       <c r="V17" s="2">
         <f t="shared" ca="1" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W17" s="2">
         <f t="shared" ca="1" si="1"/>
@@ -6869,11 +3010,11 @@
       </c>
       <c r="D18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6893,7 +3034,7 @@
       </c>
       <c r="J18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6917,7 +3058,7 @@
       </c>
       <c r="P18" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -6925,7 +3066,7 @@
       </c>
       <c r="R18" s="2">
         <f t="shared" ref="R18:AG22" ca="1" si="3">IF(RAND()&lt;0.1134,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -6941,11 +3082,11 @@
       </c>
       <c r="V18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X18" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -6953,7 +3094,7 @@
       </c>
       <c r="Y18" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z18" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -6988,8 +3129,8 @@
         <v>0</v>
       </c>
       <c r="AH18" s="2">
-        <f t="shared" ref="W18:AK35" ca="1" si="4">IF(RAND()&lt;0.1134,1,0)</f>
-        <v>0</v>
+        <f t="shared" ref="W18:AI35" ca="1" si="4">IF(RAND()&lt;0.1134,1,0)</f>
+        <v>1</v>
       </c>
       <c r="AI18" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7020,7 +3161,7 @@
       </c>
       <c r="F19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7032,11 +3173,11 @@
       </c>
       <c r="I19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7044,7 +3185,7 @@
       </c>
       <c r="L19" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M19" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7068,7 +3209,7 @@
       </c>
       <c r="R19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S19" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -7080,11 +3221,11 @@
       </c>
       <c r="U19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V19" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W19" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7100,7 +3241,7 @@
       </c>
       <c r="Z19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA19" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7128,7 +3269,7 @@
       </c>
       <c r="AG19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH19" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7136,7 +3277,7 @@
       </c>
       <c r="AI19" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
@@ -7151,7 +3292,7 @@
       </c>
       <c r="C20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7159,7 +3300,7 @@
       </c>
       <c r="E20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7167,15 +3308,15 @@
       </c>
       <c r="G20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7191,7 +3332,7 @@
       </c>
       <c r="M20" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N20" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7219,7 +3360,7 @@
       </c>
       <c r="T20" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U20" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -7259,7 +3400,7 @@
       </c>
       <c r="AD20" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE20" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7290,7 +3431,7 @@
       </c>
       <c r="B21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7298,19 +3439,19 @@
       </c>
       <c r="D21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G21" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7354,15 +3495,15 @@
       </c>
       <c r="R21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T21" s="2">
         <f t="shared" ca="1" si="3"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U21" s="2">
         <f t="shared" ca="1" si="3"/>
@@ -7394,7 +3535,7 @@
       </c>
       <c r="AB21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC21" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7418,7 +3559,7 @@
       </c>
       <c r="AH21" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AI21" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7441,15 +3582,15 @@
       </c>
       <c r="D22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G22" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7461,7 +3602,7 @@
       </c>
       <c r="I22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J22" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7477,7 +3618,7 @@
       </c>
       <c r="M22" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N22" s="2">
         <f t="shared" ca="1" si="2"/>
@@ -7517,7 +3658,7 @@
       </c>
       <c r="W22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7557,7 +3698,7 @@
       </c>
       <c r="AG22" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH22" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7596,7 +3737,7 @@
       </c>
       <c r="G23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H23" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7636,11 +3777,11 @@
       </c>
       <c r="Q23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S23" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7656,11 +3797,11 @@
       </c>
       <c r="V23" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23" s="2">
         <f ca="1">IF(RAND()&lt;0.1134,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7668,7 +3809,7 @@
       </c>
       <c r="Y23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z23" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7700,7 +3841,7 @@
       </c>
       <c r="AG23" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH23" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7719,7 +3860,7 @@
       </c>
       <c r="B24" s="2">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C24" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7731,7 +3872,7 @@
       </c>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7775,7 +3916,7 @@
       </c>
       <c r="P24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7787,7 +3928,7 @@
       </c>
       <c r="S24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T24" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7795,7 +3936,7 @@
       </c>
       <c r="U24" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V24" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7827,7 +3968,7 @@
       </c>
       <c r="AC24" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD24" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7862,7 +4003,7 @@
       </c>
       <c r="B25" s="2">
         <f t="shared" ref="B25:Q35" ca="1" si="6">IF(RAND()&lt;0.1134,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C25" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7878,11 +4019,11 @@
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7894,7 +4035,7 @@
       </c>
       <c r="J25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K25" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7918,7 +4059,7 @@
       </c>
       <c r="P25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7934,11 +4075,11 @@
       </c>
       <c r="T25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U25" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -7950,7 +4091,7 @@
       </c>
       <c r="X25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y25" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -7982,11 +4123,11 @@
       </c>
       <c r="AF25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AG25" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH25" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8041,7 +4182,7 @@
       </c>
       <c r="K26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8065,7 +4206,7 @@
       </c>
       <c r="Q26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R26" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8073,11 +4214,11 @@
       </c>
       <c r="S26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T26" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8089,7 +4230,7 @@
       </c>
       <c r="W26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X26" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8097,15 +4238,15 @@
       </c>
       <c r="Y26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB26" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8121,7 +4262,7 @@
       </c>
       <c r="AE26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF26" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8133,7 +4274,7 @@
       </c>
       <c r="AH26" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI26" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8152,7 +4293,7 @@
       </c>
       <c r="C27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8176,7 +4317,7 @@
       </c>
       <c r="I27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8220,7 +4361,7 @@
       </c>
       <c r="T27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U27" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8228,11 +4369,11 @@
       </c>
       <c r="V27" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8272,7 +4413,7 @@
       </c>
       <c r="AG27" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AH27" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8383,11 +4524,11 @@
       </c>
       <c r="Y28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z28" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA28" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8454,7 +4595,7 @@
       </c>
       <c r="G29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H29" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8498,7 +4639,7 @@
       </c>
       <c r="R29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8510,7 +4651,7 @@
       </c>
       <c r="U29" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V29" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8534,7 +4675,7 @@
       </c>
       <c r="AA29" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB29" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8609,7 +4750,7 @@
       </c>
       <c r="J30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8617,7 +4758,7 @@
       </c>
       <c r="L30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M30" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8625,11 +4766,11 @@
       </c>
       <c r="N30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8645,7 +4786,7 @@
       </c>
       <c r="S30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T30" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8653,11 +4794,11 @@
       </c>
       <c r="U30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V30" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W30" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8673,7 +4814,7 @@
       </c>
       <c r="Z30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA30" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8681,7 +4822,7 @@
       </c>
       <c r="AB30" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC30" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8812,7 +4953,7 @@
       </c>
       <c r="Y31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8844,7 +4985,7 @@
       </c>
       <c r="AG31" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AH31" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -8867,7 +5008,7 @@
       </c>
       <c r="C32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D32" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8911,11 +5052,11 @@
       </c>
       <c r="N32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -8927,11 +5068,11 @@
       </c>
       <c r="R32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S32" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T32" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -9010,11 +5151,11 @@
       </c>
       <c r="C33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -9030,7 +5171,7 @@
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -9082,7 +5223,7 @@
       </c>
       <c r="U33" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V33" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -9094,11 +5235,11 @@
       </c>
       <c r="X33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z33" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -9118,7 +5259,7 @@
       </c>
       <c r="AD33" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AE33" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -9169,11 +5310,11 @@
       </c>
       <c r="G34" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H34" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -9185,7 +5326,7 @@
       </c>
       <c r="K34" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -9225,7 +5366,7 @@
       </c>
       <c r="U34" s="2">
         <f t="shared" ca="1" si="5"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V34" s="2">
         <f t="shared" ca="1" si="5"/>
@@ -9281,7 +5422,7 @@
       </c>
       <c r="AI34" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AJ34" s="2"/>
       <c r="AK34" s="2"/>
@@ -9304,7 +5445,7 @@
       </c>
       <c r="E35" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F35" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -9312,7 +5453,7 @@
       </c>
       <c r="G35" s="2">
         <f t="shared" ca="1" si="6"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H35" s="2">
         <f t="shared" ca="1" si="6"/>
@@ -9376,7 +5517,7 @@
       </c>
       <c r="W35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -9404,15 +5545,15 @@
       </c>
       <c r="AD35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AE35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AF35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AG35" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -9420,7 +5561,7 @@
       </c>
       <c r="AH35" s="2">
         <f t="shared" ca="1" si="4"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI35" s="2">
         <f t="shared" ca="1" si="4"/>
@@ -9513,4 +5654,3766 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AI35"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:AI35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:35">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>0</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>0</v>
+      </c>
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
+        <v>0</v>
+      </c>
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
+        <v>0</v>
+      </c>
+      <c r="AC2">
+        <v>0</v>
+      </c>
+      <c r="AD2">
+        <v>0</v>
+      </c>
+      <c r="AE2">
+        <v>0</v>
+      </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
+      <c r="AI2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>0</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>0</v>
+      </c>
+      <c r="W3">
+        <v>0</v>
+      </c>
+      <c r="X3">
+        <v>0</v>
+      </c>
+      <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
+        <v>1</v>
+      </c>
+      <c r="AC3">
+        <v>0</v>
+      </c>
+      <c r="AD3">
+        <v>0</v>
+      </c>
+      <c r="AE3">
+        <v>0</v>
+      </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
+      <c r="AI3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0</v>
+      </c>
+      <c r="AC4">
+        <v>0</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>1</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>0</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
+        <v>0</v>
+      </c>
+      <c r="AF5">
+        <v>0</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
+      <c r="AI5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35">
+      <c r="A6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>0</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>0</v>
+      </c>
+      <c r="X6">
+        <v>0</v>
+      </c>
+      <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>1</v>
+      </c>
+      <c r="AB6">
+        <v>0</v>
+      </c>
+      <c r="AC6">
+        <v>0</v>
+      </c>
+      <c r="AD6">
+        <v>0</v>
+      </c>
+      <c r="AE6">
+        <v>0</v>
+      </c>
+      <c r="AF6">
+        <v>1</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
+      <c r="AI6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>1</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35">
+      <c r="A8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>0</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>0</v>
+      </c>
+      <c r="W8">
+        <v>0</v>
+      </c>
+      <c r="X8">
+        <v>0</v>
+      </c>
+      <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
+        <v>0</v>
+      </c>
+      <c r="AC8">
+        <v>0</v>
+      </c>
+      <c r="AD8">
+        <v>0</v>
+      </c>
+      <c r="AE8">
+        <v>0</v>
+      </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
+      <c r="AI8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35">
+      <c r="A9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>0</v>
+      </c>
+      <c r="U9">
+        <v>1</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>0</v>
+      </c>
+      <c r="X9">
+        <v>0</v>
+      </c>
+      <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
+        <v>0</v>
+      </c>
+      <c r="AC9">
+        <v>1</v>
+      </c>
+      <c r="AD9">
+        <v>0</v>
+      </c>
+      <c r="AE9">
+        <v>0</v>
+      </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
+      <c r="AI9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35">
+      <c r="A10" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>1</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0</v>
+      </c>
+      <c r="AC10">
+        <v>0</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35">
+      <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
+        <v>0</v>
+      </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
+      <c r="AI11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35">
+      <c r="A12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>1</v>
+      </c>
+      <c r="AG12">
+        <v>1</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35">
+      <c r="A13" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>1</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>1</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>1</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0</v>
+      </c>
+      <c r="AC13">
+        <v>0</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35">
+      <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>1</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35">
+      <c r="A15" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>1</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>1</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35">
+      <c r="A16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <v>0</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+      <c r="T16">
+        <v>0</v>
+      </c>
+      <c r="U16">
+        <v>0</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16">
+        <v>0</v>
+      </c>
+      <c r="X16">
+        <v>0</v>
+      </c>
+      <c r="Y16">
+        <v>0</v>
+      </c>
+      <c r="Z16">
+        <v>0</v>
+      </c>
+      <c r="AA16">
+        <v>0</v>
+      </c>
+      <c r="AB16">
+        <v>0</v>
+      </c>
+      <c r="AC16">
+        <v>0</v>
+      </c>
+      <c r="AD16">
+        <v>0</v>
+      </c>
+      <c r="AE16">
+        <v>0</v>
+      </c>
+      <c r="AF16">
+        <v>1</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>1</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:35">
+      <c r="A17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+      <c r="T17">
+        <v>0</v>
+      </c>
+      <c r="U17">
+        <v>0</v>
+      </c>
+      <c r="V17">
+        <v>0</v>
+      </c>
+      <c r="W17">
+        <v>0</v>
+      </c>
+      <c r="X17">
+        <v>0</v>
+      </c>
+      <c r="Y17">
+        <v>0</v>
+      </c>
+      <c r="Z17">
+        <v>0</v>
+      </c>
+      <c r="AA17">
+        <v>1</v>
+      </c>
+      <c r="AB17">
+        <v>0</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>0</v>
+      </c>
+      <c r="AE17">
+        <v>0</v>
+      </c>
+      <c r="AF17">
+        <v>0</v>
+      </c>
+      <c r="AG17">
+        <v>0</v>
+      </c>
+      <c r="AH17">
+        <v>0</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:35">
+      <c r="A18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+      <c r="T18">
+        <v>0</v>
+      </c>
+      <c r="U18">
+        <v>0</v>
+      </c>
+      <c r="V18">
+        <v>0</v>
+      </c>
+      <c r="W18">
+        <v>0</v>
+      </c>
+      <c r="X18">
+        <v>1</v>
+      </c>
+      <c r="Y18">
+        <v>0</v>
+      </c>
+      <c r="Z18">
+        <v>0</v>
+      </c>
+      <c r="AA18">
+        <v>0</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>0</v>
+      </c>
+      <c r="AD18">
+        <v>0</v>
+      </c>
+      <c r="AE18">
+        <v>0</v>
+      </c>
+      <c r="AF18">
+        <v>0</v>
+      </c>
+      <c r="AG18">
+        <v>0</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
+      <c r="AI18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:35">
+      <c r="A19" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>1</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>0</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
+        <v>0</v>
+      </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:35">
+      <c r="A20" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>1</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+      <c r="T20">
+        <v>0</v>
+      </c>
+      <c r="U20">
+        <v>0</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20">
+        <v>1</v>
+      </c>
+      <c r="X20">
+        <v>0</v>
+      </c>
+      <c r="Y20">
+        <v>0</v>
+      </c>
+      <c r="Z20">
+        <v>0</v>
+      </c>
+      <c r="AA20">
+        <v>0</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>0</v>
+      </c>
+      <c r="AD20">
+        <v>0</v>
+      </c>
+      <c r="AE20">
+        <v>0</v>
+      </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
+      <c r="AI20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:35">
+      <c r="A21" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+      <c r="T21">
+        <v>0</v>
+      </c>
+      <c r="U21">
+        <v>0</v>
+      </c>
+      <c r="V21">
+        <v>0</v>
+      </c>
+      <c r="W21">
+        <v>0</v>
+      </c>
+      <c r="X21">
+        <v>0</v>
+      </c>
+      <c r="Y21">
+        <v>0</v>
+      </c>
+      <c r="Z21">
+        <v>0</v>
+      </c>
+      <c r="AA21">
+        <v>0</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>0</v>
+      </c>
+      <c r="AD21">
+        <v>0</v>
+      </c>
+      <c r="AE21">
+        <v>0</v>
+      </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
+      <c r="AI21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:35">
+      <c r="A22" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+      <c r="T22">
+        <v>0</v>
+      </c>
+      <c r="U22">
+        <v>0</v>
+      </c>
+      <c r="V22">
+        <v>0</v>
+      </c>
+      <c r="W22">
+        <v>0</v>
+      </c>
+      <c r="X22">
+        <v>0</v>
+      </c>
+      <c r="Y22">
+        <v>0</v>
+      </c>
+      <c r="Z22">
+        <v>1</v>
+      </c>
+      <c r="AA22">
+        <v>0</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>0</v>
+      </c>
+      <c r="AE22">
+        <v>0</v>
+      </c>
+      <c r="AF22">
+        <v>0</v>
+      </c>
+      <c r="AG22">
+        <v>0</v>
+      </c>
+      <c r="AH22">
+        <v>0</v>
+      </c>
+      <c r="AI22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:35">
+      <c r="A23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+      <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
+        <v>0</v>
+      </c>
+      <c r="V23">
+        <v>0</v>
+      </c>
+      <c r="W23">
+        <v>0</v>
+      </c>
+      <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
+        <v>0</v>
+      </c>
+      <c r="Z23">
+        <v>0</v>
+      </c>
+      <c r="AA23">
+        <v>0</v>
+      </c>
+      <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
+        <v>1</v>
+      </c>
+      <c r="AD23">
+        <v>0</v>
+      </c>
+      <c r="AE23">
+        <v>0</v>
+      </c>
+      <c r="AF23">
+        <v>1</v>
+      </c>
+      <c r="AG23">
+        <v>0</v>
+      </c>
+      <c r="AH23">
+        <v>0</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:35">
+      <c r="A24" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>0</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+      <c r="T24">
+        <v>0</v>
+      </c>
+      <c r="U24">
+        <v>0</v>
+      </c>
+      <c r="V24">
+        <v>0</v>
+      </c>
+      <c r="W24">
+        <v>0</v>
+      </c>
+      <c r="X24">
+        <v>0</v>
+      </c>
+      <c r="Y24">
+        <v>1</v>
+      </c>
+      <c r="Z24">
+        <v>0</v>
+      </c>
+      <c r="AA24">
+        <v>0</v>
+      </c>
+      <c r="AB24">
+        <v>0</v>
+      </c>
+      <c r="AC24">
+        <v>0</v>
+      </c>
+      <c r="AD24">
+        <v>0</v>
+      </c>
+      <c r="AE24">
+        <v>0</v>
+      </c>
+      <c r="AF24">
+        <v>0</v>
+      </c>
+      <c r="AG24">
+        <v>0</v>
+      </c>
+      <c r="AH24">
+        <v>0</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:35">
+      <c r="A25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>0</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>0</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25">
+        <v>0</v>
+      </c>
+      <c r="U25">
+        <v>0</v>
+      </c>
+      <c r="V25">
+        <v>0</v>
+      </c>
+      <c r="W25">
+        <v>0</v>
+      </c>
+      <c r="X25">
+        <v>0</v>
+      </c>
+      <c r="Y25">
+        <v>0</v>
+      </c>
+      <c r="Z25">
+        <v>0</v>
+      </c>
+      <c r="AA25">
+        <v>0</v>
+      </c>
+      <c r="AB25">
+        <v>0</v>
+      </c>
+      <c r="AC25">
+        <v>0</v>
+      </c>
+      <c r="AD25">
+        <v>0</v>
+      </c>
+      <c r="AE25">
+        <v>1</v>
+      </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>1</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:35">
+      <c r="A26" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
+      </c>
+      <c r="D26">
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>0</v>
+      </c>
+      <c r="F26">
+        <v>0</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26">
+        <v>0</v>
+      </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>1</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0</v>
+      </c>
+      <c r="T26">
+        <v>0</v>
+      </c>
+      <c r="U26">
+        <v>0</v>
+      </c>
+      <c r="V26">
+        <v>0</v>
+      </c>
+      <c r="W26">
+        <v>0</v>
+      </c>
+      <c r="X26">
+        <v>0</v>
+      </c>
+      <c r="Y26">
+        <v>0</v>
+      </c>
+      <c r="Z26">
+        <v>0</v>
+      </c>
+      <c r="AA26">
+        <v>0</v>
+      </c>
+      <c r="AB26">
+        <v>0</v>
+      </c>
+      <c r="AC26">
+        <v>0</v>
+      </c>
+      <c r="AD26">
+        <v>0</v>
+      </c>
+      <c r="AE26">
+        <v>0</v>
+      </c>
+      <c r="AF26">
+        <v>1</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:35">
+      <c r="A27" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27">
+        <v>0</v>
+      </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0</v>
+      </c>
+      <c r="T27">
+        <v>0</v>
+      </c>
+      <c r="U27">
+        <v>0</v>
+      </c>
+      <c r="V27">
+        <v>0</v>
+      </c>
+      <c r="W27">
+        <v>0</v>
+      </c>
+      <c r="X27">
+        <v>1</v>
+      </c>
+      <c r="Y27">
+        <v>0</v>
+      </c>
+      <c r="Z27">
+        <v>0</v>
+      </c>
+      <c r="AA27">
+        <v>0</v>
+      </c>
+      <c r="AB27">
+        <v>0</v>
+      </c>
+      <c r="AC27">
+        <v>0</v>
+      </c>
+      <c r="AD27">
+        <v>0</v>
+      </c>
+      <c r="AE27">
+        <v>0</v>
+      </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>1</v>
+      </c>
+      <c r="AI27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:35">
+      <c r="A28" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28">
+        <v>0</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+      <c r="F28">
+        <v>0</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28">
+        <v>0</v>
+      </c>
+      <c r="P28">
+        <v>1</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>1</v>
+      </c>
+      <c r="S28">
+        <v>0</v>
+      </c>
+      <c r="T28">
+        <v>0</v>
+      </c>
+      <c r="U28">
+        <v>0</v>
+      </c>
+      <c r="V28">
+        <v>0</v>
+      </c>
+      <c r="W28">
+        <v>0</v>
+      </c>
+      <c r="X28">
+        <v>0</v>
+      </c>
+      <c r="Y28">
+        <v>0</v>
+      </c>
+      <c r="Z28">
+        <v>0</v>
+      </c>
+      <c r="AA28">
+        <v>0</v>
+      </c>
+      <c r="AB28">
+        <v>0</v>
+      </c>
+      <c r="AC28">
+        <v>1</v>
+      </c>
+      <c r="AD28">
+        <v>0</v>
+      </c>
+      <c r="AE28">
+        <v>0</v>
+      </c>
+      <c r="AF28">
+        <v>1</v>
+      </c>
+      <c r="AG28">
+        <v>0</v>
+      </c>
+      <c r="AH28">
+        <v>0</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:35">
+      <c r="A29" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <v>0</v>
+      </c>
+      <c r="H29">
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <v>0</v>
+      </c>
+      <c r="V29">
+        <v>0</v>
+      </c>
+      <c r="W29">
+        <v>0</v>
+      </c>
+      <c r="X29">
+        <v>0</v>
+      </c>
+      <c r="Y29">
+        <v>0</v>
+      </c>
+      <c r="Z29">
+        <v>0</v>
+      </c>
+      <c r="AA29">
+        <v>0</v>
+      </c>
+      <c r="AB29">
+        <v>0</v>
+      </c>
+      <c r="AC29">
+        <v>0</v>
+      </c>
+      <c r="AD29">
+        <v>0</v>
+      </c>
+      <c r="AE29">
+        <v>0</v>
+      </c>
+      <c r="AF29">
+        <v>0</v>
+      </c>
+      <c r="AG29">
+        <v>0</v>
+      </c>
+      <c r="AH29">
+        <v>0</v>
+      </c>
+      <c r="AI29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:35">
+      <c r="A30" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30">
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>0</v>
+      </c>
+      <c r="F30">
+        <v>0</v>
+      </c>
+      <c r="G30">
+        <v>0</v>
+      </c>
+      <c r="H30">
+        <v>0</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0</v>
+      </c>
+      <c r="U30">
+        <v>0</v>
+      </c>
+      <c r="V30">
+        <v>0</v>
+      </c>
+      <c r="W30">
+        <v>1</v>
+      </c>
+      <c r="X30">
+        <v>0</v>
+      </c>
+      <c r="Y30">
+        <v>0</v>
+      </c>
+      <c r="Z30">
+        <v>0</v>
+      </c>
+      <c r="AA30">
+        <v>0</v>
+      </c>
+      <c r="AB30">
+        <v>0</v>
+      </c>
+      <c r="AC30">
+        <v>0</v>
+      </c>
+      <c r="AD30">
+        <v>0</v>
+      </c>
+      <c r="AE30">
+        <v>0</v>
+      </c>
+      <c r="AF30">
+        <v>0</v>
+      </c>
+      <c r="AG30">
+        <v>0</v>
+      </c>
+      <c r="AH30">
+        <v>0</v>
+      </c>
+      <c r="AI30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:35">
+      <c r="A31" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31">
+        <v>0</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>0</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+      <c r="N31">
+        <v>0</v>
+      </c>
+      <c r="O31">
+        <v>0</v>
+      </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0</v>
+      </c>
+      <c r="U31">
+        <v>0</v>
+      </c>
+      <c r="V31">
+        <v>0</v>
+      </c>
+      <c r="W31">
+        <v>0</v>
+      </c>
+      <c r="X31">
+        <v>0</v>
+      </c>
+      <c r="Y31">
+        <v>0</v>
+      </c>
+      <c r="Z31">
+        <v>0</v>
+      </c>
+      <c r="AA31">
+        <v>0</v>
+      </c>
+      <c r="AB31">
+        <v>0</v>
+      </c>
+      <c r="AC31">
+        <v>0</v>
+      </c>
+      <c r="AD31">
+        <v>0</v>
+      </c>
+      <c r="AE31">
+        <v>0</v>
+      </c>
+      <c r="AF31">
+        <v>0</v>
+      </c>
+      <c r="AG31">
+        <v>0</v>
+      </c>
+      <c r="AH31">
+        <v>0</v>
+      </c>
+      <c r="AI31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:35">
+      <c r="A32" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>0</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>1</v>
+      </c>
+      <c r="N32">
+        <v>0</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0</v>
+      </c>
+      <c r="S32">
+        <v>0</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+      <c r="V32">
+        <v>0</v>
+      </c>
+      <c r="W32">
+        <v>0</v>
+      </c>
+      <c r="X32">
+        <v>0</v>
+      </c>
+      <c r="Y32">
+        <v>0</v>
+      </c>
+      <c r="Z32">
+        <v>0</v>
+      </c>
+      <c r="AA32">
+        <v>0</v>
+      </c>
+      <c r="AB32">
+        <v>0</v>
+      </c>
+      <c r="AC32">
+        <v>0</v>
+      </c>
+      <c r="AD32">
+        <v>0</v>
+      </c>
+      <c r="AE32">
+        <v>0</v>
+      </c>
+      <c r="AF32">
+        <v>0</v>
+      </c>
+      <c r="AG32">
+        <v>1</v>
+      </c>
+      <c r="AH32">
+        <v>0</v>
+      </c>
+      <c r="AI32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:35">
+      <c r="A33" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <v>0</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0</v>
+      </c>
+      <c r="K33">
+        <v>0</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0</v>
+      </c>
+      <c r="S33">
+        <v>0</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+      <c r="V33">
+        <v>1</v>
+      </c>
+      <c r="W33">
+        <v>0</v>
+      </c>
+      <c r="X33">
+        <v>0</v>
+      </c>
+      <c r="Y33">
+        <v>0</v>
+      </c>
+      <c r="Z33">
+        <v>0</v>
+      </c>
+      <c r="AA33">
+        <v>0</v>
+      </c>
+      <c r="AB33">
+        <v>0</v>
+      </c>
+      <c r="AC33">
+        <v>0</v>
+      </c>
+      <c r="AD33">
+        <v>0</v>
+      </c>
+      <c r="AE33">
+        <v>0</v>
+      </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
+      <c r="AI33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:35">
+      <c r="A34" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>0</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0</v>
+      </c>
+      <c r="K34">
+        <v>0</v>
+      </c>
+      <c r="L34">
+        <v>1</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0</v>
+      </c>
+      <c r="S34">
+        <v>0</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>1</v>
+      </c>
+      <c r="V34">
+        <v>1</v>
+      </c>
+      <c r="W34">
+        <v>0</v>
+      </c>
+      <c r="X34">
+        <v>0</v>
+      </c>
+      <c r="Y34">
+        <v>0</v>
+      </c>
+      <c r="Z34">
+        <v>0</v>
+      </c>
+      <c r="AA34">
+        <v>0</v>
+      </c>
+      <c r="AB34">
+        <v>0</v>
+      </c>
+      <c r="AC34">
+        <v>0</v>
+      </c>
+      <c r="AD34">
+        <v>0</v>
+      </c>
+      <c r="AE34">
+        <v>0</v>
+      </c>
+      <c r="AF34">
+        <v>0</v>
+      </c>
+      <c r="AG34">
+        <v>0</v>
+      </c>
+      <c r="AH34">
+        <v>1</v>
+      </c>
+      <c r="AI34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:35">
+      <c r="A35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>0</v>
+      </c>
+      <c r="K35">
+        <v>0</v>
+      </c>
+      <c r="L35">
+        <v>0</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+      <c r="N35">
+        <v>0</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0</v>
+      </c>
+      <c r="S35">
+        <v>0</v>
+      </c>
+      <c r="T35">
+        <v>0</v>
+      </c>
+      <c r="U35">
+        <v>0</v>
+      </c>
+      <c r="V35">
+        <v>1</v>
+      </c>
+      <c r="W35">
+        <v>0</v>
+      </c>
+      <c r="X35">
+        <v>0</v>
+      </c>
+      <c r="Y35">
+        <v>0</v>
+      </c>
+      <c r="Z35">
+        <v>0</v>
+      </c>
+      <c r="AA35">
+        <v>0</v>
+      </c>
+      <c r="AB35">
+        <v>0</v>
+      </c>
+      <c r="AC35">
+        <v>0</v>
+      </c>
+      <c r="AD35">
+        <v>0</v>
+      </c>
+      <c r="AE35">
+        <v>0</v>
+      </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
+      <c r="AI35">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>